--- a/Конспект_SQL.xlsx
+++ b/Конспект_SQL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\SQL_cource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04274B32-F934-4DF3-A376-F8440ABFCC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B644D8F2-8660-4FAB-A049-C76B5C897E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="230" yWindow="1580" windowWidth="17780" windowHeight="19020" tabRatio="728" activeTab="2" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="728" activeTab="2" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Тип данных" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
   <si>
     <t>Функция</t>
   </si>
@@ -345,6 +345,15 @@
   </si>
   <si>
     <t>SELECT columns(s) "alias", expression(s) "alias" FROM table;</t>
+  </si>
+  <si>
+    <t>DUAL</t>
+  </si>
+  <si>
+    <t>SELECT * FROM DUAL;</t>
+  </si>
+  <si>
+    <t>DUAL это временная таблица</t>
   </si>
 </sst>
 </file>
@@ -767,13 +776,13 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.54296875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="24.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.5546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -802,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>46</v>
       </c>
@@ -877,7 +886,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="269" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:D294" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -895,12 +904,12 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.453125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.44140625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1161,15 +1170,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.90625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="83.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1324,6 +1333,17 @@
       </c>
       <c r="C14" s="2" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">

--- a/Конспект_SQL.xlsx
+++ b/Конспект_SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\SQL_cource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B644D8F2-8660-4FAB-A049-C76B5C897E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F444E4A7-AC98-427E-8E23-D48A0E46CBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="728" activeTab="2" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="230" yWindow="1580" windowWidth="17780" windowHeight="19020" tabRatio="728" activeTab="2" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Тип данных" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="138">
   <si>
     <t>Функция</t>
   </si>
@@ -354,6 +354,111 @@
   </si>
   <si>
     <t>DUAL это временная таблица</t>
+  </si>
+  <si>
+    <t>SELECT 'It''s my life' FROM dual;</t>
+  </si>
+  <si>
+    <t>Написание кавычеке внутри текста</t>
+  </si>
+  <si>
+    <t>Написание кавычеке внутри текста с помощью q '&lt;&gt;'</t>
+  </si>
+  <si>
+    <t>SELECT q'&lt;It's my life&gt;' AS song FROM dual;</t>
+  </si>
+  <si>
+    <t>Текст</t>
+  </si>
+  <si>
+    <t>SELECT q'(It's my life)' AS song FROM dual;</t>
+  </si>
+  <si>
+    <t>Написание кавычеке внутри текста с помощью q '()'</t>
+  </si>
+  <si>
+    <t>Вывести информацию из таблицы удовлетворяющих условиям</t>
+  </si>
+  <si>
+    <t>WHERE</t>
+  </si>
+  <si>
+    <t>SELECT * FROM table WHERE column&gt;10000;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM table WHERE condition(s);</t>
+  </si>
+  <si>
+    <t>Вывести строки таблицы table где значения в колонке column &gt; 10000</t>
+  </si>
+  <si>
+    <t>SELECT * FROM table WHERE column='text';</t>
+  </si>
+  <si>
+    <t>Вывести строки таблицы table где значения в колонке column = text</t>
+  </si>
+  <si>
+    <t>Логические</t>
+  </si>
+  <si>
+    <t>&gt; &lt; &gt;= &lt;= != &lt;&gt; =</t>
+  </si>
+  <si>
+    <t>Между</t>
+  </si>
+  <si>
+    <t>SELECT * FROM table WHERE column BETWEEN val1 and val2;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM table WHERE column BETWEEN 'A' and 'C';</t>
+  </si>
+  <si>
+    <t>Вывести все значения у которых первая буква от "A" до "C"</t>
+  </si>
+  <si>
+    <t>BETWEEN val1 vad val2</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>SELECT * FROM table WHERE column IN (val2, val2, val3);</t>
+  </si>
+  <si>
+    <t>Вывести все значения где значения строк совпадают с значениями массива IN ()</t>
+  </si>
+  <si>
+    <t>Содержится внутри</t>
+  </si>
+  <si>
+    <t>IS NULL</t>
+  </si>
+  <si>
+    <t>Это NULL ?</t>
+  </si>
+  <si>
+    <t>SELECT * FROM table WHERE column IS NULL;</t>
+  </si>
+  <si>
+    <t>Вывести строки где значения в колонке column = NULL</t>
+  </si>
+  <si>
+    <t>LIKE</t>
+  </si>
+  <si>
+    <t>Работает с текстом</t>
+  </si>
+  <si>
+    <t>LIKE %</t>
+  </si>
+  <si>
+    <t>LIKE _</t>
+  </si>
+  <si>
+    <t>% означает любое количество любых симоволов</t>
+  </si>
+  <si>
+    <t>_ означает любой один симовл</t>
   </si>
 </sst>
 </file>
@@ -776,13 +881,13 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.5546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="4"/>
+    <col min="2" max="2" width="24.1796875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.54296875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -811,7 +916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="52" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>46</v>
       </c>
@@ -886,7 +991,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="269" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="269" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:D294" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -904,12 +1009,12 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.44140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="4"/>
+    <col min="1" max="1" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.453125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1170,15 +1275,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="4"/>
+    <col min="1" max="1" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.90625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1346,19 +1451,210 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">

--- a/Конспект_SQL.xlsx
+++ b/Конспект_SQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\SQL_cource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F444E4A7-AC98-427E-8E23-D48A0E46CBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624A10F4-3E59-4E8A-8C11-31FABEB7AB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="230" yWindow="1580" windowWidth="17780" windowHeight="19020" tabRatio="728" activeTab="2" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="159">
   <si>
     <t>Функция</t>
   </si>
@@ -263,75 +263,42 @@
     <t>Выводит описание таблицы</t>
   </si>
   <si>
-    <t>SELECT * FROM table;</t>
-  </si>
-  <si>
     <t>Выбрать все столбцы из таблицы "table"</t>
   </si>
   <si>
     <t>Выбрать определенные столбец(цы) из таблицы "table"</t>
   </si>
   <si>
-    <t>SELECT column, column(s) FROM table;</t>
-  </si>
-  <si>
     <t>DISTINCT</t>
   </si>
   <si>
-    <t>SELECT DISTINCT colmun FROM table;</t>
-  </si>
-  <si>
     <t>Выбрать уникальные значения из одного столбца</t>
   </si>
   <si>
     <t>Выбрать уникальные значения из списка столбцов, действует на совокупность значений</t>
   </si>
   <si>
-    <t>SELECT DISTINCT colmun, column(s) FROM table;</t>
-  </si>
-  <si>
-    <t>SELECT column(s), expression(s) FROM table;</t>
-  </si>
-  <si>
     <t>EXPRESSIONS</t>
   </si>
   <si>
-    <t>SELECT column*5 FROM table;</t>
-  </si>
-  <si>
     <t>Выражения применяемые к столбцам при выводе</t>
   </si>
   <si>
-    <t>SELECT column1*2+column2 FROM table;</t>
-  </si>
-  <si>
     <t>Умножаем значения стиолбца column1 * 2 и прибавляем значения столбца column2</t>
   </si>
   <si>
     <t>Все значения столбца column * на 5</t>
   </si>
   <si>
-    <t>SELECT date1-date2 FROM table;</t>
-  </si>
-  <si>
     <t>При вычитании получаем количество дней</t>
   </si>
   <si>
-    <t>SELECT date+7 FROM table;</t>
-  </si>
-  <si>
     <t>Результатом будет дата увелчияенная на 7 дней</t>
   </si>
   <si>
-    <t>SELECT column1||column2 FROM table;</t>
-  </si>
-  <si>
     <t>Конкатенация текстовых данных из двух столбцов</t>
   </si>
   <si>
-    <t>SELECT column1||'Текст'||column2 FROM table;</t>
-  </si>
-  <si>
     <t>Конкатенация текстовых данных из двух столбцов и произвольного текста</t>
   </si>
   <si>
@@ -341,39 +308,21 @@
     <t>Альтернативное имя для столбца или целого выражения</t>
   </si>
   <si>
-    <t>SELECT columns(s) AS "alias", expression(s) AS "alias" FROM table;</t>
-  </si>
-  <si>
-    <t>SELECT columns(s) "alias", expression(s) "alias" FROM table;</t>
-  </si>
-  <si>
     <t>DUAL</t>
   </si>
   <si>
-    <t>SELECT * FROM DUAL;</t>
-  </si>
-  <si>
     <t>DUAL это временная таблица</t>
   </si>
   <si>
-    <t>SELECT 'It''s my life' FROM dual;</t>
-  </si>
-  <si>
     <t>Написание кавычеке внутри текста</t>
   </si>
   <si>
     <t>Написание кавычеке внутри текста с помощью q '&lt;&gt;'</t>
   </si>
   <si>
-    <t>SELECT q'&lt;It's my life&gt;' AS song FROM dual;</t>
-  </si>
-  <si>
     <t>Текст</t>
   </si>
   <si>
-    <t>SELECT q'(It's my life)' AS song FROM dual;</t>
-  </si>
-  <si>
     <t>Написание кавычеке внутри текста с помощью q '()'</t>
   </si>
   <si>
@@ -383,18 +332,9 @@
     <t>WHERE</t>
   </si>
   <si>
-    <t>SELECT * FROM table WHERE column&gt;10000;</t>
-  </si>
-  <si>
-    <t>SELECT * FROM table WHERE condition(s);</t>
-  </si>
-  <si>
     <t>Вывести строки таблицы table где значения в колонке column &gt; 10000</t>
   </si>
   <si>
-    <t>SELECT * FROM table WHERE column='text';</t>
-  </si>
-  <si>
     <t>Вывести строки таблицы table где значения в колонке column = text</t>
   </si>
   <si>
@@ -407,12 +347,6 @@
     <t>Между</t>
   </si>
   <si>
-    <t>SELECT * FROM table WHERE column BETWEEN val1 and val2;</t>
-  </si>
-  <si>
-    <t>SELECT * FROM table WHERE column BETWEEN 'A' and 'C';</t>
-  </si>
-  <si>
     <t>Вывести все значения у которых первая буква от "A" до "C"</t>
   </si>
   <si>
@@ -422,9 +356,6 @@
     <t>IN</t>
   </si>
   <si>
-    <t>SELECT * FROM table WHERE column IN (val2, val2, val3);</t>
-  </si>
-  <si>
     <t>Вывести все значения где значения строк совпадают с значениями массива IN ()</t>
   </si>
   <si>
@@ -437,9 +368,6 @@
     <t>Это NULL ?</t>
   </si>
   <si>
-    <t>SELECT * FROM table WHERE column IS NULL;</t>
-  </si>
-  <si>
     <t>Вывести строки где значения в колонке column = NULL</t>
   </si>
   <si>
@@ -459,6 +387,141 @@
   </si>
   <si>
     <t>_ означает любой один симовл</t>
+  </si>
+  <si>
+    <t>Таким образом мы заменяем спецсимвол _ на обычный</t>
+  </si>
+  <si>
+    <t>Сравнение</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>И</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>ИЛИ</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>НЕ</t>
+  </si>
+  <si>
+    <t>Сортировка</t>
+  </si>
+  <si>
+    <t>ORDER BY</t>
+  </si>
+  <si>
+    <t>SELECT * columns FROM table WHERE condition ORDER BY</t>
+  </si>
+  <si>
+    <t>Атрибуты: ASC - по возрастанию DESC - по убыванию</t>
+  </si>
+  <si>
+    <t>ORDER BY {column(s)|expr(s)|numeric position}</t>
+  </si>
+  <si>
+    <t>WHERE job_id LIKE 'ST$_%' escape '$'</t>
+  </si>
+  <si>
+    <t>WHERE job_id LIKE 'ST\_%' escape '\'</t>
+  </si>
+  <si>
+    <t>SELECT * FROM table WHERE column IS NULL</t>
+  </si>
+  <si>
+    <t>SELECT * FROM table WHERE column IN (val2, val2, val3)</t>
+  </si>
+  <si>
+    <t>SELECT * FROM table WHERE column BETWEEN 'A' and 'C'</t>
+  </si>
+  <si>
+    <t>SELECT * FROM table WHERE column BETWEEN val1 and val2</t>
+  </si>
+  <si>
+    <t>SELECT * FROM table</t>
+  </si>
+  <si>
+    <t>SELECT column, column(s) FROM table</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT colmun FROM table</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT colmun, column(s) FROM table</t>
+  </si>
+  <si>
+    <t>SELECT column(s), expression(s) FROM table</t>
+  </si>
+  <si>
+    <t>SELECT column*5 FROM table</t>
+  </si>
+  <si>
+    <t>SELECT column1*2+column2 FROM table</t>
+  </si>
+  <si>
+    <t>SELECT date1-date2 FROM table</t>
+  </si>
+  <si>
+    <t>SELECT date+7 FROM table</t>
+  </si>
+  <si>
+    <t>SELECT column1||column2 FROM table</t>
+  </si>
+  <si>
+    <t>SELECT column1||'Текст'||column2 FROM table</t>
+  </si>
+  <si>
+    <t>SELECT columns(s) "alias", expression(s) "alias" FROM table</t>
+  </si>
+  <si>
+    <t>SELECT columns(s) AS "alias", expression(s) AS "alias" FROM table</t>
+  </si>
+  <si>
+    <t>SELECT * FROM DUAL</t>
+  </si>
+  <si>
+    <t>SELECT 'It''s my life' FROM dual</t>
+  </si>
+  <si>
+    <t>SELECT q'&lt;It's my life&gt;' AS song FROM dual</t>
+  </si>
+  <si>
+    <t>SELECT q'(It's my life)' AS song FROM dual</t>
+  </si>
+  <si>
+    <t>SELECT * FROM table WHERE condition(s)</t>
+  </si>
+  <si>
+    <t>SELECT * FROM table WHERE column&gt;10000</t>
+  </si>
+  <si>
+    <t>SELECT * FROM table WHERE column='text'</t>
+  </si>
+  <si>
+    <t>Определяет порядок вывода значений NULL, в начале или в конце</t>
+  </si>
+  <si>
+    <t>ORDER BY column DESC NULLS LAST</t>
+  </si>
+  <si>
+    <t>Отсортировать по убыванию, NULL расположить в конце</t>
+  </si>
+  <si>
+    <t>Сортировать col - по столбцу, exp - по выражению, num - по номеру столбца</t>
+  </si>
+  <si>
+    <t>ASC DESC</t>
+  </si>
+  <si>
+    <t>NULLS FIRST NULLS LAST</t>
   </si>
 </sst>
 </file>
@@ -1275,14 +1338,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57" style="2" customWidth="1"/>
+    <col min="3" max="3" width="68.7265625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
@@ -1302,10 +1365,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1313,348 +1376,456 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="B21" s="2" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
